--- a/spliced/falling/2023-03-25_18-02-59/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-02-59/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,34 +1035,6 @@
         <v>-0.078343465924263</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8177140951156612</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4.59937185049057</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-1.870238688588142</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.3949243724346161</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.0597120784223079</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.08445212244987479</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-02-59/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-02-59/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.830316853523255</v>
+        <v>-2.822264432907104</v>
       </c>
       <c r="D2" t="n">
-        <v>3.761647629737854</v>
+        <v>3.932364892959594</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4785371914505959</v>
+        <v>0.4758871763944626</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1214094683527946</v>
+        <v>0.0328340083360672</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0080939643085002</v>
+        <v>0.0253509078174829</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0326812900602817</v>
+        <v>0.0371100641787052</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.873888826370239</v>
+        <v>-2.760175883769989</v>
       </c>
       <c r="D3" t="n">
-        <v>3.739926481246949</v>
+        <v>3.927277326583862</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2519635170698165</v>
+        <v>0.4960161261260509</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.061391957104206</v>
+        <v>0.0198531206697225</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0507018156349659</v>
+        <v>0.0163406450301408</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0813977941870689</v>
+        <v>-0.009468411095440299</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.17759734392166</v>
+        <v>-2.64756965637207</v>
       </c>
       <c r="D4" t="n">
-        <v>3.094935894012452</v>
+        <v>3.941246557235718</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.055553257465361</v>
+        <v>0.6029229372739793</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0126754539087414</v>
+        <v>-0.0001527163112768</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.266184538602829</v>
+        <v>0.0464257597923278</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0452040284872055</v>
+        <v>0.0154243474826216</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.781754684448242</v>
+        <v>-2.628955054283141</v>
       </c>
       <c r="D5" t="n">
-        <v>2.629349136352539</v>
+        <v>3.869387286901474</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.783702611923218</v>
+        <v>0.6939661800861359</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0755945742130279</v>
+        <v>0.0108428578823804</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1324050426483154</v>
+        <v>-0.015118914656341</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1108720451593399</v>
+        <v>0.1504255682229995</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3.911327278614044</v>
+        <v>-2.694027137756347</v>
       </c>
       <c r="D6" t="n">
-        <v>1.632070899009704</v>
+        <v>3.838324213027954</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.105818438529968</v>
+        <v>0.7007610917091369</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2214386463165283</v>
+        <v>0.0204639863222837</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4340197443962097</v>
+        <v>-0.0316122770309448</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0148134818300604</v>
+        <v>0.0610865242779254</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-5.623295831680297</v>
+        <v>-2.807751727104188</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7180684566497808</v>
+        <v>3.847099477052689</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.688220548629761</v>
+        <v>0.6076438263058663</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2553416788578033</v>
+        <v>-0.009010262787342</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.5070181488990784</v>
+        <v>-0.0128281703218817</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0436768643558025</v>
+        <v>0.0167987942695617</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-6.422207009792328</v>
+        <v>-2.889829158782959</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5463402450084687</v>
+        <v>3.764959990978241</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.518551957607269</v>
+        <v>0.4738430827856064</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8651378750801086</v>
+        <v>-0.0468839071691036</v>
       </c>
       <c r="G8" t="n">
-        <v>0.230448916554451</v>
+        <v>0.052381694316864</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.6892086863517761</v>
+        <v>0.0694859251379966</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.178159475326543</v>
+        <v>-3.067947173118591</v>
       </c>
       <c r="D9" t="n">
-        <v>1.582323312759396</v>
+        <v>3.764124345779419</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.006135582923893</v>
+        <v>0.4743617072701454</v>
       </c>
       <c r="F9" t="n">
-        <v>1.613447785377502</v>
+        <v>0.0027488935738801</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0974330082535743</v>
+        <v>0.09178250283002851</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.265546560287476</v>
+        <v>0.0717766657471656</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-3.926182019710541</v>
+        <v>-3.113880395889281</v>
       </c>
       <c r="D10" t="n">
-        <v>3.611184996366497</v>
+        <v>3.648524475097656</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6073530614375975</v>
+        <v>0.3546387374401094</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1902845203876495</v>
+        <v>0.0128281703218817</v>
       </c>
       <c r="G10" t="n">
-        <v>1.200044751167297</v>
+        <v>0.0387899428606033</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.24567985534668</v>
+        <v>0.0054977871477603</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-4.239339423179628</v>
+        <v>-2.830316853523255</v>
       </c>
       <c r="D11" t="n">
-        <v>4.14080636501312</v>
+        <v>3.761647629737854</v>
       </c>
       <c r="E11" t="n">
-        <v>3.278265589475629</v>
+        <v>0.4785371914505959</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5577199459075928</v>
+        <v>0.1214094683527946</v>
       </c>
       <c r="G11" t="n">
-        <v>2.010357618331909</v>
+        <v>-0.0080939643085002</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8011497855186462</v>
+        <v>0.0326812900602817</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.282989490032158</v>
+        <v>-2.873888826370239</v>
       </c>
       <c r="D12" t="n">
-        <v>2.413680851459504</v>
+        <v>3.739926481246949</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6543272763490596</v>
+        <v>0.2519635170698165</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.031724214553833</v>
+        <v>-0.061391957104206</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.6270532011985779</v>
+        <v>-0.0507018156349659</v>
       </c>
       <c r="H12" t="n">
-        <v>-4.525289535522461</v>
+        <v>-0.0813977941870689</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7.509865951538076</v>
+        <v>-3.17759734392166</v>
       </c>
       <c r="D13" t="n">
-        <v>2.822640895843509</v>
+        <v>3.094935894012452</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.422052669525146</v>
+        <v>-1.055553257465361</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.38100004196167</v>
+        <v>0.0126754539087414</v>
       </c>
       <c r="G13" t="n">
-        <v>0.087353728711605</v>
+        <v>-0.266184538602829</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.472948789596558</v>
+        <v>0.0452040284872055</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.871775150299069</v>
+        <v>-3.781754684448242</v>
       </c>
       <c r="D14" t="n">
-        <v>4.098878204822539</v>
+        <v>2.629349136352539</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.140487685799597</v>
+        <v>-1.783702611923218</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8362745046615601</v>
+        <v>0.0755945742130279</v>
       </c>
       <c r="G14" t="n">
-        <v>2.635119915008545</v>
+        <v>-0.1324050426483154</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4735732674598694</v>
+        <v>0.1108720451593399</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.782487344741822</v>
+        <v>-3.911327278614044</v>
       </c>
       <c r="D15" t="n">
-        <v>4.224413537979126</v>
+        <v>1.632070899009704</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.672759181261064</v>
+        <v>-2.105818438529968</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3104722499847412</v>
+        <v>0.2214386463165283</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0462730415165424</v>
+        <v>-0.4340197443962097</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.327729195356369</v>
+        <v>-0.0148134818300604</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.05776283740998212</v>
+        <v>-5.623295831680297</v>
       </c>
       <c r="D16" t="n">
-        <v>3.633949923515318</v>
+        <v>0.7180684566497808</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03897095024586128</v>
+        <v>-2.688220548629761</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0215329993516206</v>
+        <v>0.2553416788578033</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9650143980979921</v>
+        <v>-0.5070181488990784</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0117591563612222</v>
+        <v>0.0436768643558025</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.522613048553472</v>
+        <v>-6.422207009792328</v>
       </c>
       <c r="D17" t="n">
-        <v>5.809941577911379</v>
+        <v>0.5463402450084687</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.533208680152897</v>
+        <v>-3.518551957607269</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5355761051177979</v>
+        <v>0.8651378750801086</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.6331618428230286</v>
+        <v>0.230448916554451</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.1020144969224929</v>
+        <v>-0.6892086863517761</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4.382918024063111</v>
+        <v>-5.178159475326543</v>
       </c>
       <c r="D18" t="n">
-        <v>3.592077732086182</v>
+        <v>1.582323312759396</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.185777962207795</v>
+        <v>-3.006135582923893</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0649044290184974</v>
+        <v>1.613447785377502</v>
       </c>
       <c r="G18" t="n">
-        <v>0.545655369758606</v>
+        <v>-0.0974330082535743</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1579086631536483</v>
+        <v>-2.265546560287476</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.164362668991095</v>
+        <v>-3.926182019710541</v>
       </c>
       <c r="D19" t="n">
-        <v>3.682830810546873</v>
+        <v>3.611184996366497</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.28418397903442</v>
+        <v>0.6073530614375975</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1128573566675186</v>
+        <v>0.1902845203876495</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2232712507247924</v>
+        <v>1.200044751167297</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1513418704271316</v>
+        <v>-3.24567985534668</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.118086504936218</v>
+        <v>-4.239339423179628</v>
       </c>
       <c r="D20" t="n">
-        <v>3.899120330810547</v>
+        <v>4.14080636501312</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.249887198209762</v>
+        <v>3.278265589475629</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1999056488275528</v>
+        <v>-0.5577199459075928</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.3659082949161529</v>
+        <v>2.010357618331909</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0462730415165424</v>
+        <v>0.8011497855186462</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-1.282989490032158</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.413680851459504</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6543272763490596</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-3.031724214553833</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.6270532011985779</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-4.525289535522461</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7.509865951538076</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.822640895843509</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1.422052669525146</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-2.38100004196167</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.087353728711605</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-1.472948789596558</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2.871775150299069</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.098878204822539</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.140487685799597</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8362745046615601</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.635119915008545</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.4735732674598694</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3.782487344741822</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.224413537979126</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.672759181261064</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.3104722499847412</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.0462730415165424</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.327729195356369</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.05776283740998212</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.633949923515318</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.03897095024586128</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.0215329993516206</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9650143980979921</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0117591563612222</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3.522613048553472</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.809941577911379</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-2.533208680152897</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.5355761051177979</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.6331618428230286</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.1020144969224929</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>4.382918024063111</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.592077732086182</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-2.185777962207795</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0649044290184974</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.545655369758606</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1579086631536483</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2.164362668991095</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.682830810546873</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-3.28418397903442</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1128573566675186</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2232712507247924</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.1513418704271316</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1.118086504936218</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.899120330810547</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-2.249887198209762</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1999056488275528</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.3659082949161529</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.0462730415165424</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>0.6892168045043942</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D30" t="n">
         <v>4.255544376373291</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E30" t="n">
         <v>-1.803213787078858</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F30" t="n">
         <v>0.2883284091949463</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G30" t="n">
         <v>-0.233655959367752</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H30" t="n">
         <v>-0.078343465924263</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8177140951156612</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.59937185049057</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.870238688588142</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.3949243724346161</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0597120784223079</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.08445212244987479</v>
       </c>
     </row>
   </sheetData>
